--- a/extra bestanden/Bachelorproef iperf_1 26 05.xlsx
+++ b/extra bestanden/Bachelorproef iperf_1 26 05.xlsx
@@ -2,15 +2,15 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28730"/>
-  <workbookPr defaultThemeVersion="202300"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://hogent-my.sharepoint.com/personal/els_palmans_hogent_be/Documents/Documenten/Els/Jan/nieuwe gegevens/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jande\Documents\AAA2024-2025\BPGit\extra bestanden\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="58" documentId="8_{9C26D984-EB4A-4BDB-880E-7BFF01B52B69}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{9C65BD79-6803-4D95-85E9-F15F9B2DB91A}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DB98506D-FDD4-42AA-BC4C-009CFC30960F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-113" yWindow="-113" windowWidth="32281" windowHeight="17531" firstSheet="1" activeTab="7" xr2:uid="{FF0E4474-86D7-4DE4-A321-CAF3451C05D5}"/>
+    <workbookView xWindow="1152" yWindow="1152" windowWidth="21120" windowHeight="10632" firstSheet="5" activeTab="8" xr2:uid="{FF0E4474-86D7-4DE4-A321-CAF3451C05D5}"/>
   </bookViews>
   <sheets>
     <sheet name="iperf1_26.05_1" sheetId="1" r:id="rId1"/>
@@ -28,23 +28,12 @@
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3909" uniqueCount="505">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3910" uniqueCount="505">
   <si>
     <t>Connecting to host 10.5.0.186, port 5201</t>
   </si>
@@ -1949,7 +1938,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.05" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
@@ -2604,7 +2593,7 @@
       <selection sqref="A1:A130"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.05" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
@@ -3259,7 +3248,7 @@
       <selection sqref="A1:A130"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.05" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
@@ -3914,7 +3903,7 @@
       <selection activeCell="I16" sqref="I16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.05" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
@@ -4563,18 +4552,18 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1343D7AF-5CDC-48C1-941E-E92B619912B1}">
-  <dimension ref="A1:K121"/>
+  <dimension ref="A1:M121"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:XFD1"/>
+      <selection activeCell="M4" sqref="M4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.05" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="3" max="3" width="12.77734375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.3">
       <c r="C1" s="1" t="s">
         <v>501</v>
       </c>
@@ -4592,7 +4581,7 @@
         <v>504</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>375</v>
       </c>
@@ -4626,8 +4615,11 @@
       <c r="K2" t="s">
         <v>381</v>
       </c>
-    </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="M2" t="s">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>375</v>
       </c>
@@ -4661,8 +4653,12 @@
       <c r="K3" t="s">
         <v>381</v>
       </c>
-    </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="M3">
+        <f>AVERAGE(G2:G121)</f>
+        <v>94.254166666666563</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>375</v>
       </c>
@@ -4697,7 +4693,7 @@
         <v>381</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>375</v>
       </c>
@@ -4732,7 +4728,7 @@
         <v>381</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>375</v>
       </c>
@@ -4767,7 +4763,7 @@
         <v>381</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>375</v>
       </c>
@@ -4802,7 +4798,7 @@
         <v>381</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>375</v>
       </c>
@@ -4837,7 +4833,7 @@
         <v>381</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>375</v>
       </c>
@@ -4872,7 +4868,7 @@
         <v>381</v>
       </c>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>375</v>
       </c>
@@ -4907,7 +4903,7 @@
         <v>381</v>
       </c>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>375</v>
       </c>
@@ -4942,7 +4938,7 @@
         <v>381</v>
       </c>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>375</v>
       </c>
@@ -4977,7 +4973,7 @@
         <v>381</v>
       </c>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>375</v>
       </c>
@@ -5012,7 +5008,7 @@
         <v>381</v>
       </c>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>375</v>
       </c>
@@ -5047,7 +5043,7 @@
         <v>381</v>
       </c>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>375</v>
       </c>
@@ -5082,7 +5078,7 @@
         <v>381</v>
       </c>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>375</v>
       </c>
@@ -8805,7 +8801,7 @@
       <selection sqref="A1:XFD1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.05" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="3" max="3" width="12.77734375" bestFit="1" customWidth="1"/>
   </cols>
@@ -13041,7 +13037,7 @@
       <selection sqref="A1:XFD1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.05" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="3" max="3" width="12.77734375" bestFit="1" customWidth="1"/>
   </cols>
@@ -17273,9 +17269,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{42051061-8E80-4902-B48F-FBCF1AC64B24}">
   <dimension ref="A1:K121"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.05" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="3" max="3" width="12.77734375" bestFit="1" customWidth="1"/>
   </cols>
@@ -21505,13 +21501,13 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FD52C97E-4684-457E-85F9-8D27A6378500}">
-  <dimension ref="A1:J9"/>
+  <dimension ref="A1:J13"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="J8" sqref="J8:J9"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I13" sqref="I13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.05" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="23.6640625" customWidth="1"/>
   </cols>
@@ -21597,6 +21593,12 @@
         <v>370</v>
       </c>
     </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="I13">
+        <f>(94.3+94.1+94.4+94.1+94.4+94.1+94.3+94.1)/8</f>
+        <v>94.224999999999994</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
